--- a/case_study/experiments/policy1Hz/single/base/NoEnforcer.xlsx
+++ b/case_study/experiments/policy1Hz/single/base/NoEnforcer.xlsx
@@ -5,22 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nicopellegrinelli\abz2025_casestudy_autonomous_driving\enforcement\data\single\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\abz2025_casestudy_autonomous_driving\case_study\experiments\policy1Hz\single\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0FC57C-0D39-462F-A946-0AC308C5A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF61150-DEBE-4283-B911-4ED20AEE1E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="25">
   <si>
     <t>execution_id</t>
   </si>
@@ -86,6 +100,15 @@
   </si>
   <si>
     <t>f97cc077-c38c-4d93-9930-264522278683</t>
+  </si>
+  <si>
+    <t>N. crash:</t>
+  </si>
+  <si>
+    <t>Mean:</t>
+  </si>
+  <si>
+    <t>Standard Deviation:</t>
   </si>
 </sst>
 </file>
@@ -448,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -556,7 +579,7 @@
         <v>9774.9165169999505</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -606,7 +629,7 @@
         <v>10962.649497000029</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -656,7 +679,7 @@
         <v>10995.789371000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -706,7 +729,7 @@
         <v>10717.739828000051</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -756,7 +779,7 @@
         <v>11135.42073199994</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -806,7 +829,7 @@
         <v>11021.616849</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -856,7 +879,7 @@
         <v>10744.119822000021</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -906,7 +929,7 @@
         <v>11050.624488000039</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -956,7 +979,7 @@
         <v>11224.473475000081</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1029,7 @@
         <v>11240.618746</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1056,7 +1079,7 @@
         <v>8400.0720960002582</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1106,7 +1129,7 @@
         <v>10569.160836000259</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1179,7 @@
         <v>10314.79728700015</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1206,7 +1229,7 @@
         <v>10341.61594800025</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1256,7 +1279,7 @@
         <v>10556.322647000339</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1306,7 +1329,7 @@
         <v>10556.667449999621</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1356,7 +1379,7 @@
         <v>10559.499875999791</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1406,7 +1429,7 @@
         <v>11179.54962800013</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1456,7 +1479,7 @@
         <v>11156.69869700014</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1506,7 +1529,7 @@
         <v>10907.362277000169</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1556,7 +1579,7 @@
         <v>10687.13421699977</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1629,7 @@
         <v>10758.50915000046</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +1679,7 @@
         <v>10857.2438049996</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1706,7 +1729,7 @@
         <v>10919.425828000391</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1756,7 +1779,7 @@
         <v>10979.041868999961</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1806,7 +1829,7 @@
         <v>10825.809543000099</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1879,7 @@
         <v>11075.84079999924</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1906,7 +1929,7 @@
         <v>10873.582382999301</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1956,7 +1979,7 @@
         <v>10673.057597000479</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2006,7 +2029,7 @@
         <v>10677.977364000069</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2056,7 +2079,7 @@
         <v>10528.13410399995</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2106,7 +2129,7 @@
         <v>11576.87718000034</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2156,7 +2179,7 @@
         <v>10514.63105300081</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2206,7 +2229,7 @@
         <v>10370.66215300001</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2256,7 +2279,7 @@
         <v>10481.953258000431</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2306,7 +2329,7 @@
         <v>10800.70929399972</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2356,7 +2379,7 @@
         <v>10196.34668100025</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2406,7 +2429,7 @@
         <v>10211.86190400022</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2456,7 +2479,7 @@
         <v>10380.55072299994</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2506,7 +2529,7 @@
         <v>10468.827902000159</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2556,7 +2579,7 @@
         <v>13497.94447400018</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2606,7 +2629,7 @@
         <v>10925.058144999641</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2656,7 +2679,7 @@
         <v>10397.20153600047</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2706,7 +2729,7 @@
         <v>10124.785406999759</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2756,7 +2779,7 @@
         <v>10430.724798000479</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2806,7 +2829,7 @@
         <v>10387.55312299963</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2856,7 +2879,7 @@
         <v>10090.625723999439</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -2906,7 +2929,7 @@
         <v>10311.650224000001</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -2956,7 +2979,7 @@
         <v>10391.274672000691</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -3004,6 +3027,49 @@
       </c>
       <c r="P51">
         <v>10078.567616999861</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53">
+        <f>COUNTIF(G2:G51,"True")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54:P54" si="0">AVERAGE(I2:I51)</f>
+        <v>0.91428728500366185</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>10678.065571900052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55">
+        <f>_xlfn.STDEV.S(I2:I51)</f>
+        <v>0.13979648332599034</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ref="J55:P55" si="1">_xlfn.STDEV.S(J2:J51)</f>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="1"/>
+        <v>631.88204646521376</v>
       </c>
     </row>
   </sheetData>

--- a/case_study/experiments/policy1Hz/single/base/NoEnforcer.xlsx
+++ b/case_study/experiments/policy1Hz/single/base/NoEnforcer.xlsx
@@ -5,36 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\abz2025_casestudy_autonomous_driving\case_study\experiments\policy1Hz\single\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nicopellegrinelli\abz2025_casestudy_autonomous_driving\enforcement\data\single\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF61150-DEBE-4283-B911-4ED20AEE1E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0FC57C-0D39-462F-A946-0AC308C5A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="22">
   <si>
     <t>execution_id</t>
   </si>
@@ -100,15 +86,6 @@
   </si>
   <si>
     <t>f97cc077-c38c-4d93-9930-264522278683</t>
-  </si>
-  <si>
-    <t>N. crash:</t>
-  </si>
-  <si>
-    <t>Mean:</t>
-  </si>
-  <si>
-    <t>Standard Deviation:</t>
   </si>
 </sst>
 </file>
@@ -471,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -579,7 +556,7 @@
         <v>9774.9165169999505</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -629,7 +606,7 @@
         <v>10962.649497000029</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -679,7 +656,7 @@
         <v>10995.789371000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -729,7 +706,7 @@
         <v>10717.739828000051</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -779,7 +756,7 @@
         <v>11135.42073199994</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -829,7 +806,7 @@
         <v>11021.616849</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -879,7 +856,7 @@
         <v>10744.119822000021</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -929,7 +906,7 @@
         <v>11050.624488000039</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -979,7 +956,7 @@
         <v>11224.473475000081</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1006,7 @@
         <v>11240.618746</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1056,7 @@
         <v>8400.0720960002582</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1129,7 +1106,7 @@
         <v>10569.160836000259</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1179,7 +1156,7 @@
         <v>10314.79728700015</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1229,7 +1206,7 @@
         <v>10341.61594800025</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1279,7 +1256,7 @@
         <v>10556.322647000339</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1329,7 +1306,7 @@
         <v>10556.667449999621</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1379,7 +1356,7 @@
         <v>10559.499875999791</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1406,7 @@
         <v>11179.54962800013</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1479,7 +1456,7 @@
         <v>11156.69869700014</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1529,7 +1506,7 @@
         <v>10907.362277000169</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1579,7 +1556,7 @@
         <v>10687.13421699977</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1629,7 +1606,7 @@
         <v>10758.50915000046</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1679,7 +1656,7 @@
         <v>10857.2438049996</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1706,7 @@
         <v>10919.425828000391</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1779,7 +1756,7 @@
         <v>10979.041868999961</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1829,7 +1806,7 @@
         <v>10825.809543000099</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1879,7 +1856,7 @@
         <v>11075.84079999924</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1929,7 +1906,7 @@
         <v>10873.582382999301</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1979,7 +1956,7 @@
         <v>10673.057597000479</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2029,7 +2006,7 @@
         <v>10677.977364000069</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2079,7 +2056,7 @@
         <v>10528.13410399995</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2129,7 +2106,7 @@
         <v>11576.87718000034</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2179,7 +2156,7 @@
         <v>10514.63105300081</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2229,7 +2206,7 @@
         <v>10370.66215300001</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2279,7 +2256,7 @@
         <v>10481.953258000431</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2329,7 +2306,7 @@
         <v>10800.70929399972</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2379,7 +2356,7 @@
         <v>10196.34668100025</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2429,7 +2406,7 @@
         <v>10211.86190400022</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2479,7 +2456,7 @@
         <v>10380.55072299994</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2529,7 +2506,7 @@
         <v>10468.827902000159</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2579,7 +2556,7 @@
         <v>13497.94447400018</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2629,7 +2606,7 @@
         <v>10925.058144999641</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2679,7 +2656,7 @@
         <v>10397.20153600047</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2729,7 +2706,7 @@
         <v>10124.785406999759</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2779,7 +2756,7 @@
         <v>10430.724798000479</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2829,7 +2806,7 @@
         <v>10387.55312299963</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2879,7 +2856,7 @@
         <v>10090.625723999439</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -2929,7 +2906,7 @@
         <v>10311.650224000001</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -2979,7 +2956,7 @@
         <v>10391.274672000691</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -3027,49 +3004,6 @@
       </c>
       <c r="P51">
         <v>10078.567616999861</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53">
-        <f>COUNTIF(G2:G51,"True")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54">
-        <f t="shared" ref="I54:P54" si="0">AVERAGE(I2:I51)</f>
-        <v>0.91428728500366185</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="0"/>
-        <v>10678.065571900052</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55">
-        <f>_xlfn.STDEV.S(I2:I51)</f>
-        <v>0.13979648332599034</v>
-      </c>
-      <c r="J55">
-        <f t="shared" ref="J55:P55" si="1">_xlfn.STDEV.S(J2:J51)</f>
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="1"/>
-        <v>631.88204646521376</v>
       </c>
     </row>
   </sheetData>
